--- a/biology/Zoologie/Chausie/Chausie.xlsx
+++ b/biology/Zoologie/Chausie/Chausie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chausie est une race de chat originaire des États-Unis. Ce chat est caractérisé par son physique se rapprochant de celui du Chaus.
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chausie est issu d'une hybridation entre un Chaus et un chat domestique.
 Les premiers croisements eurent lieu à la fin des années 1960 afin d'avoir un chat au type sauvage et proche du Chaus mais avec un caractère d'animal domestique. On choisit des Abyssins, des Orientaux, des Bengals mais aussi des chats de gouttière ayant une allure sauvage.
@@ -548,7 +562,9 @@
           <t>Standards</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chausie est un grand chat (particulièrement les mâles) à la silhouette longue et rectangulaire. La musculature du corps est puissante sans pour autant être très voyante. La cage thoracique ne doit pas être trop bombée mais la poitrine doit être bien large. Les pattes sont d'une longueur moyenne avec des muscles puissants mais une ossature dans la moyenne. Les pattes postérieures sont plus puissantes que la plupart des autres races (environ 3/4), mais possède, si possible, un nombre de vertèbres identique. Cette particularité ne doit en aucun cas empêcher la bonne articulation de la queue.
 La tête est un large triangle aux contours a la base que vers l'extrémité qui est arrondie. Des plumets sont très appréciés.
@@ -582,7 +598,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chausie serait un chat actif, supportant mal la solitude et ayant besoin de compagnie. Il serait proche de son propriétaire, extraverti, et on dit également que c'est un chat très intelligent. Toutefois, ces traits de caractère étant avant tout fonctions de l'histoire de chaque chat, ils sont parfaitement individuels.
 </t>
@@ -613,7 +631,9 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On catégorise les générations de Chausie après l'hybridation de F1, F2, F3, F4, etc., F1 étant la génération naissant directement d'une hybridation entre un chat domestique et un Chaus.
 Les mâles des générations F1 à F3, voire F4 sont généralement stériles, ce qui complique considérablement le travail des éleveurs pour développer une race encore rare.
